--- a/mydocs/STM32H7B0-PinDescription-LQFP100.xlsx
+++ b/mydocs/STM32H7B0-PinDescription-LQFP100.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="16000" windowHeight="6260"/>
+    <workbookView activeTab="0" windowWidth="12520" windowHeight="5540"/>
   </bookViews>
   <sheets>
     <sheet name="G&amp;W" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425" count="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428" count="428">
   <si>
     <t>LQFP100</t>
   </si>
@@ -642,412 +642,421 @@
     <t>SDMMC2_CK</t>
   </si>
   <si>
+    <t>PC2_C</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>FMC_SDNE0</t>
+  </si>
+  <si>
+    <t>ADC2_INP0, ADC2_INN1</t>
+  </si>
+  <si>
+    <t>PC3_C</t>
+  </si>
+  <si>
+    <t>OCTOSPIM_P1_IO0</t>
+  </si>
+  <si>
+    <t>FMC_SDCKE0</t>
+  </si>
+  <si>
+    <t>ADC2_INP1</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>LCD_R7</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>LCD_DE</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>DFSDM1_CKIN3</t>
+  </si>
+  <si>
+    <t>FMC_NWAIT</t>
+  </si>
+  <si>
+    <t>SWPMI_IO</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>DFSDM1_DATIN3</t>
+  </si>
+  <si>
+    <t>FMC_NE1</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>TRACED1</t>
+  </si>
+  <si>
+    <t>SWPMI_RX</t>
+  </si>
+  <si>
+    <t>DCMI_D2/ PSSI_D2</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>LCD_G3</t>
+  </si>
+  <si>
+    <t>DCMI_D3/ PSSI_D3</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>OCTOSPIM_P1_NCS</t>
+  </si>
+  <si>
+    <t>DCMI_D4/ PSSI_D4</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>TRACED3</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>PC14-OSC32_IN (OSC32_IN)</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>OSC32_IN</t>
+  </si>
+  <si>
+    <t>XTAL</t>
+  </si>
+  <si>
+    <t>PC15- OSC32_OUT (OSC32_OUT)</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>OSC32_OUT</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>FT_h2</t>
+  </si>
+  <si>
+    <t>DPAD</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>TRACED2</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>OCTOSPIM_P1_IO4</t>
+  </si>
+  <si>
+    <t>PD5</t>
+  </si>
+  <si>
+    <t>OCTOSPIM_P1_IO5</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>PD6</t>
+  </si>
+  <si>
+    <t>FT_sh3</t>
+  </si>
+  <si>
+    <t>OCTOSPIM_P1_IO6</t>
+  </si>
+  <si>
+    <t>PD7</t>
+  </si>
+  <si>
+    <t>OCTOSPIM_P1_IO7</t>
+  </si>
+  <si>
+    <t>PD8</t>
+  </si>
+  <si>
+    <t>PD9</t>
+  </si>
+  <si>
+    <t>PD10</t>
+  </si>
+  <si>
+    <t>PD11</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>FT_fh2</t>
+  </si>
+  <si>
+    <t>SO/SIO1</t>
+  </si>
+  <si>
+    <t>Serial Data Output (for 1 x I/O)/ Serial Data Input &amp; Output (for 4xI/O read mode)</t>
+  </si>
+  <si>
+    <t>PD13</t>
+  </si>
+  <si>
+    <t>PD14</t>
+  </si>
+  <si>
+    <t>PD15</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>TIM4_ETR</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>SPI4_SCK</t>
+  </si>
+  <si>
+    <t>WP#/SIO2</t>
+  </si>
+  <si>
+    <t>Write Protection Active Low or Serial Data Input &amp; Output (for 4xI/O read mode)</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>SAI1_SD_B</t>
+  </si>
+  <si>
+    <t>AUDIO</t>
+  </si>
+  <si>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>SPI4_NSS</t>
+  </si>
+  <si>
+    <t>SAI1_FS_A</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>SPI4_MISO</t>
+  </si>
+  <si>
+    <t>SAI1_SCK_A</t>
+  </si>
+  <si>
+    <t>PE6</t>
+  </si>
+  <si>
+    <t>SPI4_MOSI</t>
+  </si>
+  <si>
+    <t>PE7</t>
+  </si>
+  <si>
+    <t>FT_ah2</t>
+  </si>
+  <si>
+    <t>COMP2_INM</t>
+  </si>
+  <si>
+    <t>CHG</t>
+  </si>
+  <si>
+    <t>Open-Drain Charging Status Indication Output. CHG pulls to VSS when the battery is charging. CHG is high impedance when charging is complete and when charger is disabled. Connect CHG to the desired logic voltage rail using a 1kΩ-100kΩ resistor, or use with an LED for visual indication.</t>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>COMP2_OUT</t>
+  </si>
+  <si>
+    <t>OPAMP2_VINM</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Charge Enable Active-Low Input. Connect CE to a high logic level to disable battery charging. OUT is active and battery supplement mode is still available. Connect CE to a low logic level to enable the battery charger. CE is internally pulled down with approximately 285 kΩ. Do not leave CE unconnected to ensure proper operation.</t>
+  </si>
+  <si>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>COMP2_INP</t>
+  </si>
+  <si>
+    <t>PE10</t>
+  </si>
+  <si>
+    <t>PE11</t>
+  </si>
+  <si>
+    <t>CS#</t>
+  </si>
+  <si>
+    <t>Chip Select</t>
+  </si>
+  <si>
+    <t>PE12</t>
+  </si>
+  <si>
+    <t>PE13</t>
+  </si>
+  <si>
+    <t>PE14</t>
+  </si>
+  <si>
+    <t>PE15</t>
+  </si>
+  <si>
+    <t>PH0- OSC_IN(PH0)</t>
+  </si>
+  <si>
+    <t>OSC_IN</t>
+  </si>
+  <si>
+    <t>PH1-OSC_OUT (PH1)</t>
+  </si>
+  <si>
+    <t>OSC_OUT</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>VPP</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>VSSA</t>
+  </si>
+  <si>
+    <t>VREF+</t>
+  </si>
+  <si>
+    <t>VDDA</t>
+  </si>
+  <si>
+    <t>VCAP</t>
+  </si>
+  <si>
+    <t>Alternate functions</t>
+  </si>
+  <si>
+    <t>Additional functions</t>
+  </si>
+  <si>
+    <t>NOTATION</t>
+  </si>
+  <si>
+    <t>TRACECLK, SAI1_CK1, SPI4_SCK, SAI1_MCLK_A, OCTOSPIM_P1_IO2, USART10_RX, FMC_A23, EVENTOUT</t>
+  </si>
+  <si>
+    <t>TRACED0, TIM15_BKIN, SAI1_SD_B, USART10_TX, FMC_A19, EVENTOUT</t>
+  </si>
+  <si>
+    <t>TRACED1, SAI1_D2, DFSDM1_DATIN3, TIM15_CH1N, SPI4_NSS, SAI1_FS_A, FMC_A20, DCMI_D4/PSSI_D4, LCD_B0, EVENTOUT</t>
+  </si>
+  <si>
+    <t>TRACED2, SAI1_CK2, DFSDM1_CKIN3, TIM15_CH1, SPI4_MISO, SAI1_SCK_A, FMC_A21, DCMI_D6/PSSI_D6, LCD_G0, EVENTOUT</t>
+  </si>
+  <si>
+    <t>TRACED3, TIM1_BKIN2, SAI1_D1, TIM15_CH2, SPI4_MOSI, SAI1_SD_A, SAI2_MCK_B, TIM1_BKIN2_COMP12, FMC_A22, DCMI_D7/PSSI_D7, LCD_G1, EVENTOUT</t>
+  </si>
+  <si>
+    <t>TAMP_IN1/ TAMP_OUT2/ TAMP_OUT3, RTC_OUT1/RTC_TS, WKUP2</t>
+  </si>
+  <si>
+    <t>DFSDM1_CKIN0, DFSDM1_DATIN4, SAI2_FS_B, FMC_A25, OTG_HS_ULPI_STP, LCD_G2, FMC_SDNWE, LCD_R5, EVENTOUT</t>
+  </si>
+  <si>
+    <t>TRACED0, SAI1_D1, DFSDM1_DATIN0, DFSDM1_CKIN4, SPI2_MOSI/I2S2_SDO, SAI1_SD_A, SDMMC2_CK, OCTOSPIM_P1_IO4, MDIOS_MDC, LCD_G5, EVENTOUT</t>
+  </si>
+  <si>
+    <t>ADC12_INP11, ADC12_INN10, TAMP_IN3, WKUP5</t>
+  </si>
+  <si>
     <t>17(4)</t>
   </si>
   <si>
-    <t>PC2_C</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>FMC_SDNE0</t>
-  </si>
-  <si>
-    <t>ADC2_INP0, ADC2_INN1</t>
+    <t>(4) There is a direct path between Pxy_C and Pxy pins/balls, through an analog switch. Pxy alternate functions are available on Pxy_C when the analog switch is closed. The analog switch is configured through a SYSCFG register. Refer to the product reference manual for a detailed description of the switch configuration bits.</t>
   </si>
   <si>
     <t>18(4)</t>
-  </si>
-  <si>
-    <t>PC3_C</t>
-  </si>
-  <si>
-    <t>OCTOSPIM_P1_IO0</t>
-  </si>
-  <si>
-    <t>FMC_SDCKE0</t>
-  </si>
-  <si>
-    <t>ADC2_INP1</t>
-  </si>
-  <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>LCD_R7</t>
-  </si>
-  <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>LCD_DE</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>DFSDM1_CKIN3</t>
-  </si>
-  <si>
-    <t>FMC_NWAIT</t>
-  </si>
-  <si>
-    <t>SWPMI_IO</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>DFSDM1_DATIN3</t>
-  </si>
-  <si>
-    <t>FMC_NE1</t>
-  </si>
-  <si>
-    <t>PC8</t>
-  </si>
-  <si>
-    <t>TRACED1</t>
-  </si>
-  <si>
-    <t>SWPMI_RX</t>
-  </si>
-  <si>
-    <t>DCMI_D2/ PSSI_D2</t>
-  </si>
-  <si>
-    <t>PC9</t>
-  </si>
-  <si>
-    <t>LCD_G3</t>
-  </si>
-  <si>
-    <t>DCMI_D3/ PSSI_D3</t>
-  </si>
-  <si>
-    <t>PC10</t>
-  </si>
-  <si>
-    <t>PC11</t>
-  </si>
-  <si>
-    <t>OCTOSPIM_P1_NCS</t>
-  </si>
-  <si>
-    <t>DCMI_D4/ PSSI_D4</t>
-  </si>
-  <si>
-    <t>PC12</t>
-  </si>
-  <si>
-    <t>TRACED3</t>
-  </si>
-  <si>
-    <t>PC13</t>
-  </si>
-  <si>
-    <t>PC14-OSC32_IN (OSC32_IN)</t>
-  </si>
-  <si>
-    <t>PC14</t>
-  </si>
-  <si>
-    <t>OSC32_IN</t>
-  </si>
-  <si>
-    <t>XTAL</t>
-  </si>
-  <si>
-    <t>PC15- OSC32_OUT (OSC32_OUT)</t>
-  </si>
-  <si>
-    <t>PC15</t>
-  </si>
-  <si>
-    <t>OSC32_OUT</t>
-  </si>
-  <si>
-    <t>PD0</t>
-  </si>
-  <si>
-    <t>FT_h2</t>
-  </si>
-  <si>
-    <t>DPAD</t>
-  </si>
-  <si>
-    <t>PD1</t>
-  </si>
-  <si>
-    <t>PD2</t>
-  </si>
-  <si>
-    <t>TRACED2</t>
-  </si>
-  <si>
-    <t>PD3</t>
-  </si>
-  <si>
-    <t>PD4</t>
-  </si>
-  <si>
-    <t>OCTOSPIM_P1_IO4</t>
-  </si>
-  <si>
-    <t>PD5</t>
-  </si>
-  <si>
-    <t>OCTOSPIM_P1_IO5</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>PD6</t>
-  </si>
-  <si>
-    <t>FT_sh3</t>
-  </si>
-  <si>
-    <t>OCTOSPIM_P1_IO6</t>
-  </si>
-  <si>
-    <t>PD7</t>
-  </si>
-  <si>
-    <t>OCTOSPIM_P1_IO7</t>
-  </si>
-  <si>
-    <t>PD8</t>
-  </si>
-  <si>
-    <t>PD9</t>
-  </si>
-  <si>
-    <t>PD10</t>
-  </si>
-  <si>
-    <t>PD11</t>
-  </si>
-  <si>
-    <t>PD12</t>
-  </si>
-  <si>
-    <t>FT_fh2</t>
-  </si>
-  <si>
-    <t>SO/SIO1</t>
-  </si>
-  <si>
-    <t>Serial Data Output (for 1 x I/O)/ Serial Data Input &amp; Output (for 4xI/O read mode)</t>
-  </si>
-  <si>
-    <t>PD13</t>
-  </si>
-  <si>
-    <t>PD14</t>
-  </si>
-  <si>
-    <t>PD15</t>
-  </si>
-  <si>
-    <t>PE0</t>
-  </si>
-  <si>
-    <t>TIM4_ETR</t>
-  </si>
-  <si>
-    <t>PE1</t>
-  </si>
-  <si>
-    <t>PE2</t>
-  </si>
-  <si>
-    <t>SPI4_SCK</t>
-  </si>
-  <si>
-    <t>WP#/SIO2</t>
-  </si>
-  <si>
-    <t>Write Protection Active Low or Serial Data Input &amp; Output (for 4xI/O read mode)</t>
-  </si>
-  <si>
-    <t>PE3</t>
-  </si>
-  <si>
-    <t>AUDIO</t>
-  </si>
-  <si>
-    <t>PE4</t>
-  </si>
-  <si>
-    <t>SPI4_NSS</t>
-  </si>
-  <si>
-    <t>PE5</t>
-  </si>
-  <si>
-    <t>SPI4_MISO</t>
-  </si>
-  <si>
-    <t>PE6</t>
-  </si>
-  <si>
-    <t>SPI4_MOSI</t>
-  </si>
-  <si>
-    <t>PE7</t>
-  </si>
-  <si>
-    <t>FT_ah2</t>
-  </si>
-  <si>
-    <t>COMP2_INM</t>
-  </si>
-  <si>
-    <t>CHG</t>
-  </si>
-  <si>
-    <t>Open-Drain Charging Status Indication Output. CHG pulls to VSS when the battery is charging. CHG is high impedance when charging is complete and when charger is disabled. Connect CHG to the desired logic voltage rail using a 1kΩ-100kΩ resistor, or use with an LED for visual indication.</t>
-  </si>
-  <si>
-    <t>PE8</t>
-  </si>
-  <si>
-    <t>COMP2_OUT</t>
-  </si>
-  <si>
-    <t>OPAMP2_VINM</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>Charge Enable Active-Low Input. Connect CE to a high logic level to disable battery charging. OUT is active and battery supplement mode is still available. Connect CE to a low logic level to enable the battery charger. CE is internally pulled down with approximately 285 kΩ. Do not leave CE unconnected to ensure proper operation.</t>
-  </si>
-  <si>
-    <t>PE9</t>
-  </si>
-  <si>
-    <t>COMP2_INP</t>
-  </si>
-  <si>
-    <t>PE10</t>
-  </si>
-  <si>
-    <t>PE11</t>
-  </si>
-  <si>
-    <t>CS#</t>
-  </si>
-  <si>
-    <t>Chip Select</t>
-  </si>
-  <si>
-    <t>PE12</t>
-  </si>
-  <si>
-    <t>PE13</t>
-  </si>
-  <si>
-    <t>PE14</t>
-  </si>
-  <si>
-    <t>PE15</t>
-  </si>
-  <si>
-    <t>PH0- OSC_IN(PH0)</t>
-  </si>
-  <si>
-    <t>OSC_IN</t>
-  </si>
-  <si>
-    <t>PH1-OSC_OUT (PH1)</t>
-  </si>
-  <si>
-    <t>OSC_OUT</t>
-  </si>
-  <si>
-    <t>NRST</t>
-  </si>
-  <si>
-    <t>RST</t>
-  </si>
-  <si>
-    <t>BOOT0</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>VPP</t>
-  </si>
-  <si>
-    <t>VBAT</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>VSS</t>
-  </si>
-  <si>
-    <t>VDD</t>
-  </si>
-  <si>
-    <t>VSSA</t>
-  </si>
-  <si>
-    <t>VREF+</t>
-  </si>
-  <si>
-    <t>VDDA</t>
-  </si>
-  <si>
-    <t>VCAP</t>
-  </si>
-  <si>
-    <t>Alternate functions</t>
-  </si>
-  <si>
-    <t>Additional functions</t>
-  </si>
-  <si>
-    <t>NOTATION</t>
-  </si>
-  <si>
-    <t>TRACECLK, SAI1_CK1, SPI4_SCK, SAI1_MCLK_A, OCTOSPIM_P1_IO2, USART10_RX, FMC_A23, EVENTOUT</t>
-  </si>
-  <si>
-    <t>TRACED0, TIM15_BKIN, SAI1_SD_B, USART10_TX, FMC_A19, EVENTOUT</t>
-  </si>
-  <si>
-    <t>TRACED1, SAI1_D2, DFSDM1_DATIN3, TIM15_CH1N, SPI4_NSS, SAI1_FS_A, FMC_A20, DCMI_D4/PSSI_D4, LCD_B0, EVENTOUT</t>
-  </si>
-  <si>
-    <t>TRACED2, SAI1_CK2, DFSDM1_CKIN3, TIM15_CH1, SPI4_MISO, SAI1_SCK_A, FMC_A21, DCMI_D6/PSSI_D6, LCD_G0, EVENTOUT</t>
-  </si>
-  <si>
-    <t>TRACED3, TIM1_BKIN2, SAI1_D1, TIM15_CH2, SPI4_MOSI, SAI1_SD_A, SAI2_MCK_B, TIM1_BKIN2_COMP12, FMC_A22, DCMI_D7/PSSI_D7, LCD_G1, EVENTOUT</t>
-  </si>
-  <si>
-    <t>TAMP_IN1/ TAMP_OUT2/ TAMP_OUT3, RTC_OUT1/RTC_TS, WKUP2</t>
-  </si>
-  <si>
-    <t>DFSDM1_CKIN0, DFSDM1_DATIN4, SAI2_FS_B, FMC_A25, OTG_HS_ULPI_STP, LCD_G2, FMC_SDNWE, LCD_R5, EVENTOUT</t>
-  </si>
-  <si>
-    <t>TRACED0, SAI1_D1, DFSDM1_DATIN0, DFSDM1_CKIN4, SPI2_MOSI/I2S2_SDO, SAI1_SD_A, SDMMC2_CK, OCTOSPIM_P1_IO4, MDIOS_MDC, LCD_G5, EVENTOUT</t>
-  </si>
-  <si>
-    <t>ADC12_INP11, ADC12_INN10, TAMP_IN3, WKUP5</t>
-  </si>
-  <si>
-    <t>(4) There is a direct path between Pxy_C and Pxy pins/balls, through an analog switch. Pxy alternate functions are available on Pxy_C when the analog switch is closed. The analog switch is configured through a SYSCFG register. Refer to the product reference manual for a detailed description of the switch configuration bits.</t>
   </si>
   <si>
     <t>TIM2_CH1/TIM2_ETR, TIM5_CH1, TIM8_ETR, TIM15_BKIN, SPI6_NSS/ I2S6_WS, USART2_CTS/ USART2_NSS, UART4_TX, SDMMC2_CMD, SAI2_SD_B, EVENTOUT</t>
@@ -1334,7 +1343,7 @@
       <strike val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1344,6 +1353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1370,7 +1385,11 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
@@ -1399,6 +1418,10 @@
       <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1410,438 +1433,438 @@
   </sheetPr>
   <dimension ref="A1:IV65536"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0" zoomScale="70" tabSelected="1">
-      <selection activeCell="K13" sqref="A13:IV13"/>
+    <sheetView topLeftCell="N53" workbookViewId="0" zoomScale="70" tabSelected="1">
+      <selection activeCell="AL80" sqref="AL80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="10.142247596153847" customWidth="1"/>
-    <col min="2" max="2" style="0" width="11.28503605769231" customWidth="1"/>
-    <col min="3" max="3" style="0" width="4.7140024038461545" customWidth="1"/>
-    <col min="4" max="7" style="0" width="9.142307692307693"/>
-    <col min="8" max="8" style="0" width="12.99921875" customWidth="1"/>
-    <col min="9" max="9" style="0" width="15.284795673076925" customWidth="1"/>
-    <col min="10" max="10" style="0" width="13.427764423076924" customWidth="1"/>
-    <col min="11" max="11" style="0" width="12.713521634615386" customWidth="1"/>
-    <col min="12" max="12" style="0" width="15.141947115384617" customWidth="1"/>
-    <col min="13" max="13" style="0" width="15.999038461538463" customWidth="1"/>
-    <col min="14" max="14" style="0" width="12.713521634615386" customWidth="1"/>
-    <col min="15" max="15" style="0" width="15.427644230769232" customWidth="1"/>
-    <col min="16" max="16" style="0" width="16.570432692307694" customWidth="1"/>
-    <col min="17" max="17" style="0" width="17.57037259615385" customWidth="1"/>
-    <col min="18" max="18" style="0" width="13.284915865384617" customWidth="1"/>
-    <col min="19" max="21" style="0" width="9.142307692307693"/>
-    <col min="22" max="22" style="1" width="2.428425480769231" customWidth="1"/>
-    <col min="23" max="23" style="0" width="6.326150412087914" customWidth="1"/>
-    <col min="24" max="24" style="0" width="7.754635989010992" customWidth="1"/>
-    <col min="25" max="25" style="0" width="5.5098729395604416" customWidth="1"/>
-    <col min="26" max="26" style="0" width="9.142307692307693"/>
-    <col min="27" max="27" style="0" width="5.713942307692309" customWidth="1"/>
-    <col min="28" max="28" style="0" width="5.5098729395604416" customWidth="1"/>
-    <col min="29" max="29" style="0" width="9.142307692307693"/>
-    <col min="30" max="30" style="0" width="6.938358516483519" customWidth="1"/>
-    <col min="31" max="31" style="0" width="5.5098729395604416" customWidth="1"/>
-    <col min="32" max="32" style="0" width="8.366844093406597" customWidth="1"/>
-    <col min="33" max="33" style="1" width="2.428425480769231" customWidth="1"/>
-    <col min="34" max="34" style="0" width="5.918011675824178" customWidth="1"/>
-    <col min="35" max="35" style="0" width="7.754635989010992" customWidth="1"/>
-    <col min="36" max="36" style="1" width="2.428425480769231" customWidth="1"/>
-    <col min="37" max="37" style="0" width="15.856189903846156" customWidth="1"/>
-    <col min="38" max="38" style="2" width="10.999338942307693" customWidth="1"/>
-    <col min="39" max="39" style="0" width="11.85643028846154" customWidth="1"/>
-    <col min="40" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="1" style="1" width="10.142247596153847" customWidth="1"/>
+    <col min="2" max="2" style="1" width="11.28503605769231" customWidth="1"/>
+    <col min="3" max="3" style="1" width="4.7140024038461545" customWidth="1"/>
+    <col min="4" max="7" style="1" width="9.142307692307693"/>
+    <col min="8" max="8" style="1" width="12.99921875" customWidth="1"/>
+    <col min="9" max="9" style="1" width="15.284795673076925" customWidth="1"/>
+    <col min="10" max="10" style="1" width="13.427764423076924" customWidth="1"/>
+    <col min="11" max="11" style="1" width="23.88427884615385" customWidth="1"/>
+    <col min="12" max="12" style="1" width="15.141947115384617" customWidth="1"/>
+    <col min="13" max="13" style="1" width="15.999038461538463" customWidth="1"/>
+    <col min="14" max="14" style="1" width="12.713521634615386" customWidth="1"/>
+    <col min="15" max="15" style="1" width="15.427644230769232" customWidth="1"/>
+    <col min="16" max="16" style="1" width="16.570432692307694" customWidth="1"/>
+    <col min="17" max="17" style="1" width="17.57037259615385" customWidth="1"/>
+    <col min="18" max="18" style="1" width="13.284915865384617" customWidth="1"/>
+    <col min="19" max="21" style="1" width="9.142307692307693"/>
+    <col min="22" max="22" style="2" width="2.428425480769231" customWidth="1"/>
+    <col min="23" max="23" style="1" width="6.325334134615385" customWidth="1"/>
+    <col min="24" max="24" style="1" width="7.753819711538463" customWidth="1"/>
+    <col min="25" max="25" style="1" width="5.510145032051282" customWidth="1"/>
+    <col min="26" max="26" style="1" width="9.142307692307693"/>
+    <col min="27" max="27" style="1" width="5.713942307692308" customWidth="1"/>
+    <col min="28" max="28" style="1" width="5.510145032051282" customWidth="1"/>
+    <col min="29" max="29" style="1" width="9.142307692307693"/>
+    <col min="30" max="30" style="1" width="6.93863060897436" customWidth="1"/>
+    <col min="31" max="31" style="1" width="5.510145032051282" customWidth="1"/>
+    <col min="32" max="32" style="1" width="8.367116185897437" customWidth="1"/>
+    <col min="33" max="33" style="2" width="2.428425480769231" customWidth="1"/>
+    <col min="34" max="34" style="1" width="5.917739583333334" customWidth="1"/>
+    <col min="35" max="35" style="1" width="7.753819711538463" customWidth="1"/>
+    <col min="36" max="36" style="2" width="2.428425480769231" customWidth="1"/>
+    <col min="37" max="37" style="1" width="15.856189903846156" customWidth="1"/>
+    <col min="38" max="38" style="3" width="10.999338942307693" customWidth="1"/>
+    <col min="39" max="39" style="1" width="11.85643028846154" customWidth="1"/>
+    <col min="40" max="256" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" customHeight="1" ht="116.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:256" customHeight="1" ht="116.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Port</t>
         </is>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>LPTIM1/ TIM1/2/16/17</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>PDM_SAI1/ TIM3/4/5/12/15</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>DFSDM1/ LPTIM2/3/ LPUART1/ OCTOSPIM_P1/2/ TIM8</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CEC/DCMI/ PSSI/ DFSDM1/2/ I2C1/2/3/4/ LPTIM2/ TIM15/ USART1</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>CEC/SPI1/ I2S1/SPI2/ I2S2/SPI3/ I2S3/ SPI4/5/ SPI6/I2S6</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>DFSDM1/2/ I2C4/ OCTOSPIM_P1/ SAI1/SPI3/I2S3/ UART4</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>SDMMC1/ SPI2/I2S2/ SPI3/I2S3/ SPI6/I2S6/ UART7/ USART1/2/3/6</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>LPUART1/ SAI2/ SDMMC1/ SPDIFRX1/ SPI6/I2S6/ UART4/5/8</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>FDCAN1/2/FMC/ LCD/ OCTOSPIM_P1/2/ SDMMC2/ SPDIFRX1/ TIM13/14</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>CRS/FMC/LCD/ OCTOSPIM_P1/ OTG1_FS/OTG1_HS/ SAI2/SDMMC2/TIM8</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>DFSDM1/2/ I2C4/LCD/ MDIOS/ OCTOSPIM_P1/ SDMMC2/ SWPMI1/ TIM1/8/ UART7/9/ USART10</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>FMC/LCD/ MDIOS/ SDMMC1/ TIM1/8</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>COMP/DCMI/ PSSI/LCD/ TIM1</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>LCD/UART5</t>
         </is>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="V1" s="5"/>
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>ADC</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>WAKEUP</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>DAC</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="Z1" s="4" t="inlineStr">
         <is>
           <t>COMPARATOR</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>OP AMP</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="AC1" s="3" t="inlineStr">
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>Programmable Voltage Detector</t>
         </is>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
+      <c r="AD1" s="4" t="inlineStr">
         <is>
           <t>TAMP</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="inlineStr">
+      <c r="AE1" s="4" t="inlineStr">
         <is>
           <t>RTC</t>
         </is>
       </c>
-      <c r="AF1" s="3" t="inlineStr">
+      <c r="AF1" s="4" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
       </c>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="3" t="s">
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="3" t="inlineStr">
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="4" t="inlineStr">
         <is>
           <t>DEVICE CONNECTION</t>
         </is>
       </c>
-      <c r="AL1" s="5" t="inlineStr">
+      <c r="AL1" s="6" t="inlineStr">
         <is>
           <t>DEVICE PIN NUMBER</t>
         </is>
       </c>
-      <c r="AM1" s="3" t="inlineStr">
+      <c r="AM1" s="4" t="inlineStr">
         <is>
           <t>DEVICE PIN FUNCTION</t>
         </is>
       </c>
-      <c r="AN1" s="3" t="inlineStr">
+      <c r="AN1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3"/>
-      <c r="CJ1" s="3"/>
-      <c r="CK1" s="3"/>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="3"/>
-      <c r="CP1" s="3"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
-      <c r="CT1" s="3"/>
-      <c r="CU1" s="3"/>
-      <c r="CV1" s="3"/>
-      <c r="CW1" s="3"/>
-      <c r="CX1" s="3"/>
-      <c r="CY1" s="3"/>
-      <c r="CZ1" s="3"/>
-      <c r="DA1" s="3"/>
-      <c r="DB1" s="3"/>
-      <c r="DC1" s="3"/>
-      <c r="DD1" s="3"/>
-      <c r="DE1" s="3"/>
-      <c r="DF1" s="3"/>
-      <c r="DG1" s="3"/>
-      <c r="DH1" s="3"/>
-      <c r="DI1" s="3"/>
-      <c r="DJ1" s="3"/>
-      <c r="DK1" s="3"/>
-      <c r="DL1" s="3"/>
-      <c r="DM1" s="3"/>
-      <c r="DN1" s="3"/>
-      <c r="DO1" s="3"/>
-      <c r="DP1" s="3"/>
-      <c r="DQ1" s="3"/>
-      <c r="DR1" s="3"/>
-      <c r="DS1" s="3"/>
-      <c r="DT1" s="3"/>
-      <c r="DU1" s="3"/>
-      <c r="DV1" s="3"/>
-      <c r="DW1" s="3"/>
-      <c r="DX1" s="3"/>
-      <c r="DY1" s="3"/>
-      <c r="DZ1" s="3"/>
-      <c r="EA1" s="3"/>
-      <c r="EB1" s="3"/>
-      <c r="EC1" s="3"/>
-      <c r="ED1" s="3"/>
-      <c r="EE1" s="3"/>
-      <c r="EF1" s="3"/>
-      <c r="EG1" s="3"/>
-      <c r="EH1" s="3"/>
-      <c r="EI1" s="3"/>
-      <c r="EJ1" s="3"/>
-      <c r="EK1" s="3"/>
-      <c r="EL1" s="3"/>
-      <c r="EM1" s="3"/>
-      <c r="EN1" s="3"/>
-      <c r="EO1" s="3"/>
-      <c r="EP1" s="3"/>
-      <c r="EQ1" s="3"/>
-      <c r="ER1" s="3"/>
-      <c r="ES1" s="3"/>
-      <c r="ET1" s="3"/>
-      <c r="EU1" s="3"/>
-      <c r="EV1" s="3"/>
-      <c r="EW1" s="3"/>
-      <c r="EX1" s="3"/>
-      <c r="EY1" s="3"/>
-      <c r="EZ1" s="3"/>
-      <c r="FA1" s="3"/>
-      <c r="FB1" s="3"/>
-      <c r="FC1" s="3"/>
-      <c r="FD1" s="3"/>
-      <c r="FE1" s="3"/>
-      <c r="FF1" s="3"/>
-      <c r="FG1" s="3"/>
-      <c r="FH1" s="3"/>
-      <c r="FI1" s="3"/>
-      <c r="FJ1" s="3"/>
-      <c r="FK1" s="3"/>
-      <c r="FL1" s="3"/>
-      <c r="FM1" s="3"/>
-      <c r="FN1" s="3"/>
-      <c r="FO1" s="3"/>
-      <c r="FP1" s="3"/>
-      <c r="FQ1" s="3"/>
-      <c r="FR1" s="3"/>
-      <c r="FS1" s="3"/>
-      <c r="FT1" s="3"/>
-      <c r="FU1" s="3"/>
-      <c r="FV1" s="3"/>
-      <c r="FW1" s="3"/>
-      <c r="FX1" s="3"/>
-      <c r="FY1" s="3"/>
-      <c r="FZ1" s="3"/>
-      <c r="GA1" s="3"/>
-      <c r="GB1" s="3"/>
-      <c r="GC1" s="3"/>
-      <c r="GD1" s="3"/>
-      <c r="GE1" s="3"/>
-      <c r="GF1" s="3"/>
-      <c r="GG1" s="3"/>
-      <c r="GH1" s="3"/>
-      <c r="GI1" s="3"/>
-      <c r="GJ1" s="3"/>
-      <c r="GK1" s="3"/>
-      <c r="GL1" s="3"/>
-      <c r="GM1" s="3"/>
-      <c r="GN1" s="3"/>
-      <c r="GO1" s="3"/>
-      <c r="GP1" s="3"/>
-      <c r="GQ1" s="3"/>
-      <c r="GR1" s="3"/>
-      <c r="GS1" s="3"/>
-      <c r="GT1" s="3"/>
-      <c r="GU1" s="3"/>
-      <c r="GV1" s="3"/>
-      <c r="GW1" s="3"/>
-      <c r="GX1" s="3"/>
-      <c r="GY1" s="3"/>
-      <c r="GZ1" s="3"/>
-      <c r="HA1" s="3"/>
-      <c r="HB1" s="3"/>
-      <c r="HC1" s="3"/>
-      <c r="HD1" s="3"/>
-      <c r="HE1" s="3"/>
-      <c r="HF1" s="3"/>
-      <c r="HG1" s="3"/>
-      <c r="HH1" s="3"/>
-      <c r="HI1" s="3"/>
-      <c r="HJ1" s="3"/>
-      <c r="HK1" s="3"/>
-      <c r="HL1" s="3"/>
-      <c r="HM1" s="3"/>
-      <c r="HN1" s="3"/>
-      <c r="HO1" s="3"/>
-      <c r="HP1" s="3"/>
-      <c r="HQ1" s="3"/>
-      <c r="HR1" s="3"/>
-      <c r="HS1" s="3"/>
-      <c r="HT1" s="3"/>
-      <c r="HU1" s="3"/>
-      <c r="HV1" s="3"/>
-      <c r="HW1" s="3"/>
-      <c r="HX1" s="3"/>
-      <c r="HY1" s="3"/>
-      <c r="HZ1" s="3"/>
-      <c r="IA1" s="3"/>
-      <c r="IB1" s="3"/>
-      <c r="IC1" s="3"/>
-      <c r="ID1" s="3"/>
-      <c r="IE1" s="3"/>
-      <c r="IF1" s="3"/>
-      <c r="IG1" s="3"/>
-      <c r="IH1" s="3"/>
-      <c r="II1" s="3"/>
-      <c r="IJ1" s="3"/>
-      <c r="IK1" s="3"/>
-      <c r="IL1" s="3"/>
-      <c r="IM1" s="3"/>
-      <c r="IN1" s="3"/>
-      <c r="IO1" s="3"/>
-      <c r="IP1" s="3"/>
-      <c r="IQ1" s="3"/>
-      <c r="IR1" s="3"/>
-      <c r="IS1" s="3"/>
-      <c r="IT1" s="3"/>
-      <c r="IU1" s="6"/>
-      <c r="IV1" s="6"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
+      <c r="DD1" s="4"/>
+      <c r="DE1" s="4"/>
+      <c r="DF1" s="4"/>
+      <c r="DG1" s="4"/>
+      <c r="DH1" s="4"/>
+      <c r="DI1" s="4"/>
+      <c r="DJ1" s="4"/>
+      <c r="DK1" s="4"/>
+      <c r="DL1" s="4"/>
+      <c r="DM1" s="4"/>
+      <c r="DN1" s="4"/>
+      <c r="DO1" s="4"/>
+      <c r="DP1" s="4"/>
+      <c r="DQ1" s="4"/>
+      <c r="DR1" s="4"/>
+      <c r="DS1" s="4"/>
+      <c r="DT1" s="4"/>
+      <c r="DU1" s="4"/>
+      <c r="DV1" s="4"/>
+      <c r="DW1" s="4"/>
+      <c r="DX1" s="4"/>
+      <c r="DY1" s="4"/>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+      <c r="EV1" s="4"/>
+      <c r="EW1" s="4"/>
+      <c r="EX1" s="4"/>
+      <c r="EY1" s="4"/>
+      <c r="EZ1" s="4"/>
+      <c r="FA1" s="4"/>
+      <c r="FB1" s="4"/>
+      <c r="FC1" s="4"/>
+      <c r="FD1" s="4"/>
+      <c r="FE1" s="4"/>
+      <c r="FF1" s="4"/>
+      <c r="FG1" s="4"/>
+      <c r="FH1" s="4"/>
+      <c r="FI1" s="4"/>
+      <c r="FJ1" s="4"/>
+      <c r="FK1" s="4"/>
+      <c r="FL1" s="4"/>
+      <c r="FM1" s="4"/>
+      <c r="FN1" s="4"/>
+      <c r="FO1" s="4"/>
+      <c r="FP1" s="4"/>
+      <c r="FQ1" s="4"/>
+      <c r="FR1" s="4"/>
+      <c r="FS1" s="4"/>
+      <c r="FT1" s="4"/>
+      <c r="FU1" s="4"/>
+      <c r="FV1" s="4"/>
+      <c r="FW1" s="4"/>
+      <c r="FX1" s="4"/>
+      <c r="FY1" s="4"/>
+      <c r="FZ1" s="4"/>
+      <c r="GA1" s="4"/>
+      <c r="GB1" s="4"/>
+      <c r="GC1" s="4"/>
+      <c r="GD1" s="4"/>
+      <c r="GE1" s="4"/>
+      <c r="GF1" s="4"/>
+      <c r="GG1" s="4"/>
+      <c r="GH1" s="4"/>
+      <c r="GI1" s="4"/>
+      <c r="GJ1" s="4"/>
+      <c r="GK1" s="4"/>
+      <c r="GL1" s="4"/>
+      <c r="GM1" s="4"/>
+      <c r="GN1" s="4"/>
+      <c r="GO1" s="4"/>
+      <c r="GP1" s="4"/>
+      <c r="GQ1" s="4"/>
+      <c r="GR1" s="4"/>
+      <c r="GS1" s="4"/>
+      <c r="GT1" s="4"/>
+      <c r="GU1" s="4"/>
+      <c r="GV1" s="4"/>
+      <c r="GW1" s="4"/>
+      <c r="GX1" s="4"/>
+      <c r="GY1" s="4"/>
+      <c r="GZ1" s="4"/>
+      <c r="HA1" s="4"/>
+      <c r="HB1" s="4"/>
+      <c r="HC1" s="4"/>
+      <c r="HD1" s="4"/>
+      <c r="HE1" s="4"/>
+      <c r="HF1" s="4"/>
+      <c r="HG1" s="4"/>
+      <c r="HH1" s="4"/>
+      <c r="HI1" s="4"/>
+      <c r="HJ1" s="4"/>
+      <c r="HK1" s="4"/>
+      <c r="HL1" s="4"/>
+      <c r="HM1" s="4"/>
+      <c r="HN1" s="4"/>
+      <c r="HO1" s="4"/>
+      <c r="HP1" s="4"/>
+      <c r="HQ1" s="4"/>
+      <c r="HR1" s="4"/>
+      <c r="HS1" s="4"/>
+      <c r="HT1" s="4"/>
+      <c r="HU1" s="4"/>
+      <c r="HV1" s="4"/>
+      <c r="HW1" s="4"/>
+      <c r="HX1" s="4"/>
+      <c r="HY1" s="4"/>
+      <c r="HZ1" s="4"/>
+      <c r="IA1" s="4"/>
+      <c r="IB1" s="4"/>
+      <c r="IC1" s="4"/>
+      <c r="ID1" s="4"/>
+      <c r="IE1" s="4"/>
+      <c r="IF1" s="4"/>
+      <c r="IG1" s="4"/>
+      <c r="IH1" s="4"/>
+      <c r="II1" s="4"/>
+      <c r="IJ1" s="4"/>
+      <c r="IK1" s="4"/>
+      <c r="IL1" s="4"/>
+      <c r="IM1" s="4"/>
+      <c r="IN1" s="4"/>
+      <c r="IO1" s="4"/>
+      <c r="IP1" s="4"/>
+      <c r="IQ1" s="4"/>
+      <c r="IR1" s="4"/>
+      <c r="IS1" s="4"/>
+      <c r="IT1" s="4"/>
+      <c r="IU1" s="7"/>
+      <c r="IV1" s="7"/>
     </row>
     <row r="2" spans="1:256" ht="13.5">
       <c r="A2">
@@ -2654,7 +2677,6 @@
       <c r="U10" t="s">
         <v>15</v>
       </c>
-      <c r="AF10"/>
       <c r="AH10">
         <v>67</v>
       </c>
@@ -4765,14 +4787,14 @@
       </c>
     </row>
     <row r="36" spans="1:256" ht="13.5">
-      <c r="A36" t="s">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
         <v>203</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>204</v>
-      </c>
-      <c r="C36" t="s">
-        <v>205</v>
       </c>
       <c r="D36" t="s">
         <v>45</v>
@@ -4825,7 +4847,7 @@
         </is>
       </c>
       <c r="R36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S36" t="s">
         <v>8</v>
@@ -4837,24 +4859,24 @@
         <v>15</v>
       </c>
       <c r="W36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH36">
         <v>17</v>
       </c>
       <c r="AI36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:256" ht="13.5">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:256" ht="13.5">
-      <c r="A37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" t="s">
-        <v>205</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
@@ -4894,7 +4916,7 @@
         <v>8</v>
       </c>
       <c r="O37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -4907,7 +4929,7 @@
         </is>
       </c>
       <c r="R37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S37" t="s">
         <v>8</v>
@@ -4919,13 +4941,13 @@
         <v>15</v>
       </c>
       <c r="W37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AH37">
         <v>18</v>
       </c>
       <c r="AI37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:256" ht="13.5">
@@ -4933,7 +4955,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -4942,7 +4964,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -4985,13 +5007,13 @@
         <v>8</v>
       </c>
       <c r="R38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S38" t="s">
         <v>8</v>
       </c>
       <c r="T38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U38" t="s">
         <v>15</v>
@@ -5013,7 +5035,7 @@
         <v>32</v>
       </c>
       <c r="AI38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
@@ -5026,7 +5048,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -5035,7 +5057,7 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -5080,7 +5102,7 @@
         <v>8</v>
       </c>
       <c r="R39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -5088,7 +5110,7 @@
         </is>
       </c>
       <c r="T39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U39" t="s">
         <v>15</v>
@@ -5105,7 +5127,7 @@
         <v>33</v>
       </c>
       <c r="AI39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AK39" t="s">
         <v>16</v>
@@ -5124,7 +5146,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -5133,7 +5155,7 @@
         <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -5150,7 +5172,7 @@
         </is>
       </c>
       <c r="J40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5171,7 +5193,7 @@
         </is>
       </c>
       <c r="O40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -5198,13 +5220,13 @@
         <v>15</v>
       </c>
       <c r="W40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AH40">
         <v>63</v>
       </c>
       <c r="AI40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AK40" t="s">
         <v>70</v>
@@ -5218,7 +5240,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -5227,7 +5249,7 @@
         <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -5246,7 +5268,7 @@
         </is>
       </c>
       <c r="J41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K41" t="s">
         <v>8</v>
@@ -5267,7 +5289,7 @@
         </is>
       </c>
       <c r="O41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -5299,7 +5321,7 @@
         <v>64</v>
       </c>
       <c r="AI41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AK41" t="s">
         <v>70</v>
@@ -5313,7 +5335,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -5322,10 +5344,10 @@
         <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G42" t="s">
         <v>8</v>
@@ -5368,13 +5390,13 @@
         </is>
       </c>
       <c r="Q42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R42" t="s">
         <v>186</v>
       </c>
       <c r="S42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T42" t="s">
         <v>8</v>
@@ -5386,7 +5408,7 @@
         <v>65</v>
       </c>
       <c r="AI42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:256" ht="13.5">
@@ -5394,7 +5416,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -5403,7 +5425,7 @@
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -5443,10 +5465,10 @@
         </is>
       </c>
       <c r="O43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -5459,7 +5481,7 @@
         </is>
       </c>
       <c r="S43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T43" t="s">
         <v>41</v>
@@ -5471,7 +5493,7 @@
         <v>66</v>
       </c>
       <c r="AI43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AK43" t="s">
         <v>70</v>
@@ -5485,7 +5507,7 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -5494,7 +5516,7 @@
         <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -5532,7 +5554,7 @@
         <v>90</v>
       </c>
       <c r="Q44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -5554,7 +5576,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AK44" t="s">
         <v>70</v>
@@ -5568,7 +5590,7 @@
         <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -5577,7 +5599,7 @@
         <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -5609,7 +5631,7 @@
         <v>22</v>
       </c>
       <c r="O45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P45" t="s">
         <v>8</v>
@@ -5623,7 +5645,7 @@
         </is>
       </c>
       <c r="S45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T45" t="s">
         <v>88</v>
@@ -5635,7 +5657,7 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:256" ht="13.5">
@@ -5643,7 +5665,7 @@
         <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -5652,10 +5674,10 @@
         <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
@@ -5710,7 +5732,7 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:256" ht="13.5">
@@ -5718,7 +5740,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -5727,7 +5749,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -5796,7 +5818,7 @@
         <v>7</v>
       </c>
       <c r="AI47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AK47" t="s">
         <v>16</v>
@@ -5815,7 +5837,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -5824,7 +5846,7 @@
         <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
@@ -5875,16 +5897,16 @@
         <v>15</v>
       </c>
       <c r="W48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AH48">
         <v>8</v>
       </c>
       <c r="AI48" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK48" t="s">
         <v>239</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:256" ht="13.5">
@@ -5892,7 +5914,7 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -5901,7 +5923,7 @@
         <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
@@ -5952,16 +5974,16 @@
         <v>15</v>
       </c>
       <c r="W49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AH49">
         <v>9</v>
       </c>
       <c r="AI49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AK49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:256" ht="13.5">
@@ -5969,16 +5991,16 @@
         <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -6038,13 +6060,13 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AK50" t="s">
         <v>16</v>
       </c>
       <c r="AL50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AM50" t="inlineStr">
         <is>
@@ -6057,16 +6079,16 @@
         <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" t="s">
         <v>246</v>
-      </c>
-      <c r="E51" t="s">
-        <v>248</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -6124,7 +6146,7 @@
         <v>82</v>
       </c>
       <c r="AI51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -6145,7 +6167,7 @@
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -6154,10 +6176,10 @@
         <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G52" t="s">
         <v>8</v>
@@ -6214,7 +6236,7 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AK52" t="s">
         <v>70</v>
@@ -6228,16 +6250,16 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -6297,7 +6319,7 @@
         <v>84</v>
       </c>
       <c r="AI53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AK53" t="s">
         <v>70</v>
@@ -6311,7 +6333,7 @@
         <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -6320,7 +6342,7 @@
         <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -6355,7 +6377,7 @@
         <v>8</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q54" t="s">
         <v>8</v>
@@ -6378,7 +6400,7 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
@@ -6401,7 +6423,7 @@
         <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -6410,7 +6432,7 @@
         <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -6445,7 +6467,7 @@
         <v>8</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q55" t="s">
         <v>8</v>
@@ -6468,16 +6490,16 @@
         <v>86</v>
       </c>
       <c r="AI55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK55" t="s">
         <v>16</v>
       </c>
       <c r="AL55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:256" ht="13.5">
@@ -6485,16 +6507,16 @@
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -6529,13 +6551,13 @@
         <v>8</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q56" t="s">
         <v>202</v>
       </c>
       <c r="R56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S56" t="s">
         <v>143</v>
@@ -6550,7 +6572,7 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AK56" t="s">
         <v>70</v>
@@ -6564,16 +6586,16 @@
         <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" t="s">
         <v>259</v>
-      </c>
-      <c r="E57" t="s">
-        <v>261</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -6610,13 +6632,13 @@
         </is>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q57" t="s">
         <v>13</v>
       </c>
       <c r="R57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S57" t="s">
         <v>8</v>
@@ -6631,7 +6653,7 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:256" ht="13.5">
@@ -6639,16 +6661,16 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -6660,7 +6682,7 @@
         <v>8</v>
       </c>
       <c r="I58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J58" t="s">
         <v>8</v>
@@ -6706,7 +6728,7 @@
         <v>55</v>
       </c>
       <c r="AI58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK58" t="s">
         <v>70</v>
@@ -6720,16 +6742,16 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -6741,7 +6763,7 @@
         <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J59" t="s">
         <v>8</v>
@@ -6785,13 +6807,13 @@
         <v>56</v>
       </c>
       <c r="AI59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AK59" t="s">
         <v>16</v>
       </c>
       <c r="AL59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM59" t="inlineStr">
         <is>
@@ -6804,16 +6826,16 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -6869,7 +6891,7 @@
         <v>57</v>
       </c>
       <c r="AI60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AK60" t="s">
         <v>70</v>
@@ -6883,16 +6905,16 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -6924,7 +6946,7 @@
         <v>8</v>
       </c>
       <c r="O61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -6952,13 +6974,13 @@
         <v>58</v>
       </c>
       <c r="AI61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK61" t="s">
         <v>16</v>
       </c>
       <c r="AL61" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AM61" t="inlineStr">
         <is>
@@ -6971,16 +6993,16 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -7042,7 +7064,7 @@
         <v>59</v>
       </c>
       <c r="AI62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AK62" t="s">
         <v>28</v>
@@ -7051,10 +7073,10 @@
         <v>2</v>
       </c>
       <c r="AM62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AN62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:256" ht="13.5">
@@ -7062,16 +7084,16 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -7137,7 +7159,7 @@
         <v>60</v>
       </c>
       <c r="AI63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:256" ht="13.5">
@@ -7145,16 +7167,16 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -7214,13 +7236,13 @@
         <v>61</v>
       </c>
       <c r="AI64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AK64" t="s">
         <v>16</v>
       </c>
       <c r="AL64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
@@ -7233,16 +7255,16 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -7302,13 +7324,13 @@
         <v>62</v>
       </c>
       <c r="AI65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AK65" t="s">
         <v>16</v>
       </c>
       <c r="AL65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AM65" t="inlineStr">
         <is>
@@ -7321,16 +7343,16 @@
         <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -7341,7 +7363,7 @@
         </is>
       </c>
       <c r="H66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I66" t="s">
         <v>8</v>
@@ -7380,7 +7402,7 @@
         </is>
       </c>
       <c r="S66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7394,7 +7416,7 @@
         <v>97</v>
       </c>
       <c r="AI66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:256" ht="13.5">
@@ -7402,16 +7424,16 @@
         <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -7422,7 +7444,7 @@
         </is>
       </c>
       <c r="H67" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I67" t="s">
         <v>8</v>
@@ -7459,7 +7481,7 @@
         </is>
       </c>
       <c r="S67" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T67" t="s">
         <v>76</v>
@@ -7471,7 +7493,7 @@
         <v>98</v>
       </c>
       <c r="AI67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:256" ht="13.5">
@@ -7479,16 +7501,16 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -7499,7 +7521,7 @@
         <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I68" t="s">
         <v>8</v>
@@ -7508,7 +7530,7 @@
         <v>8</v>
       </c>
       <c r="K68" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -7550,7 +7572,7 @@
         <v>1</v>
       </c>
       <c r="AI68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AK68" t="s">
         <v>28</v>
@@ -7559,10 +7581,10 @@
         <v>3</v>
       </c>
       <c r="AM68" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AN68" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:256" ht="13.5">
@@ -7570,16 +7592,16 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F69" t="s">
         <v>200</v>
@@ -7588,7 +7610,7 @@
         <v>8</v>
       </c>
       <c r="H69" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I69" t="s">
         <v>8</v>
@@ -7599,10 +7621,8 @@
       <c r="K69" t="s">
         <v>8</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>SAI1_SD_B</t>
-        </is>
+      <c r="L69" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="M69" t="s">
         <v>8</v>
@@ -7639,15 +7659,18 @@
         <v>2</v>
       </c>
       <c r="AI69" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK69" t="s">
         <v>281</v>
       </c>
-      <c r="AK69" t="s">
-        <v>282</v>
-      </c>
       <c r="AL69" t="inlineStr">
         <is>
-          <t>2C</t>
-        </is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AM69" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:256" ht="13.5">
@@ -7655,40 +7678,38 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F70" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G70" t="s">
         <v>8</v>
       </c>
       <c r="H70" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
       </c>
       <c r="K70" t="s">
+        <v>283</v>
+      </c>
+      <c r="L70" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>SAI1_FS_A</t>
-        </is>
-      </c>
       <c r="M70" t="s">
         <v>8</v>
       </c>
@@ -7710,7 +7731,7 @@
         </is>
       </c>
       <c r="S70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -7724,15 +7745,18 @@
         <v>3</v>
       </c>
       <c r="AI70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AK70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL70" t="inlineStr">
         <is>
-          <t>3A</t>
-        </is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="AM70" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:256" ht="13.5">
@@ -7746,22 +7770,22 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
         <v>285</v>
       </c>
       <c r="F71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G71" t="s">
         <v>8</v>
       </c>
       <c r="H71" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I71" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J71" t="s">
         <v>33</v>
@@ -7769,10 +7793,8 @@
       <c r="K71" t="s">
         <v>286</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>SAI1_SCK_A</t>
-        </is>
+      <c r="L71" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="M71" t="s">
         <v>8</v>
@@ -7812,12 +7834,15 @@
         <v>285</v>
       </c>
       <c r="AK71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL71" t="inlineStr">
         <is>
-          <t>4C</t>
-        </is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="AM71" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:256" ht="13.5">
@@ -7825,19 +7850,19 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F72" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -7845,7 +7870,7 @@
         </is>
       </c>
       <c r="H72" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I72" t="s">
         <v>8</v>
@@ -7854,9 +7879,9 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>288</v>
-      </c>
-      <c r="L72" t="s">
+        <v>289</v>
+      </c>
+      <c r="L72" s="8" t="s">
         <v>131</v>
       </c>
       <c r="M72" t="s">
@@ -7896,15 +7921,18 @@
         <v>5</v>
       </c>
       <c r="AI72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL72" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="AM72" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:256" ht="13.5">
@@ -7912,16 +7940,16 @@
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" t="s">
         <v>290</v>
-      </c>
-      <c r="E73" t="s">
-        <v>289</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
@@ -7930,7 +7958,7 @@
         <v>96</v>
       </c>
       <c r="H73" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I73" t="s">
         <v>189</v>
@@ -7954,7 +7982,7 @@
         <v>8</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q73" t="s">
         <v>8</v>
@@ -7974,7 +8002,7 @@
         <v>15</v>
       </c>
       <c r="Z73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
@@ -7985,7 +8013,7 @@
         <v>37</v>
       </c>
       <c r="AI73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK73" t="s">
         <v>36</v>
@@ -7994,10 +8022,10 @@
         <v>9</v>
       </c>
       <c r="AM73" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:256" ht="13.5">
@@ -8005,16 +8033,16 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F74" t="s">
         <v>8</v>
@@ -8023,7 +8051,7 @@
         <v>63</v>
       </c>
       <c r="H74" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I74" t="s">
         <v>194</v>
@@ -8047,7 +8075,7 @@
         <v>8</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q74" t="s">
         <v>8</v>
@@ -8058,7 +8086,7 @@
         </is>
       </c>
       <c r="S74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T74" t="s">
         <v>8</v>
@@ -8067,13 +8095,13 @@
         <v>15</v>
       </c>
       <c r="AA74" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AH74">
         <v>38</v>
       </c>
       <c r="AI74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK74" t="s">
         <v>36</v>
@@ -8082,10 +8110,10 @@
         <v>4</v>
       </c>
       <c r="AM74" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:256" ht="13.5">
@@ -8093,16 +8121,16 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F75" t="s">
         <v>8</v>
@@ -8111,7 +8139,7 @@
         <v>73</v>
       </c>
       <c r="H75" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I75" t="s">
         <v>114</v>
@@ -8137,7 +8165,7 @@
         <v>8</v>
       </c>
       <c r="P75" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q75" t="s">
         <v>8</v>
@@ -8157,7 +8185,7 @@
         <v>15</v>
       </c>
       <c r="Z75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
@@ -8168,7 +8196,7 @@
         <v>39</v>
       </c>
       <c r="AI75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:256" ht="13.5">
@@ -8176,16 +8204,16 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
@@ -8194,7 +8222,7 @@
         <v>110</v>
       </c>
       <c r="H76" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I76" t="s">
         <v>197</v>
@@ -8220,7 +8248,7 @@
         <v>8</v>
       </c>
       <c r="P76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q76" t="s">
         <v>8</v>
@@ -8240,13 +8268,13 @@
         <v>15</v>
       </c>
       <c r="Z76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH76">
         <v>40</v>
       </c>
       <c r="AI76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:256" ht="13.5">
@@ -8254,16 +8282,16 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F77" t="s">
         <v>8</v>
@@ -8272,7 +8300,7 @@
         <v>79</v>
       </c>
       <c r="H77" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I77" t="s">
         <v>201</v>
@@ -8281,7 +8309,7 @@
         <v>8</v>
       </c>
       <c r="K77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L77" t="s">
         <v>8</v>
@@ -8299,7 +8327,7 @@
         <v>14</v>
       </c>
       <c r="Q77" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -8310,19 +8338,19 @@
         <v>8</v>
       </c>
       <c r="T77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U77" t="s">
         <v>15</v>
       </c>
       <c r="Z77" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AH77">
         <v>41</v>
       </c>
       <c r="AI77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK77" t="s">
         <v>28</v>
@@ -8331,10 +8359,10 @@
         <v>1</v>
       </c>
       <c r="AM77" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:256" ht="13.5">
@@ -8342,16 +8370,16 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
@@ -8360,7 +8388,7 @@
         <v>120</v>
       </c>
       <c r="H78" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I78" t="s">
         <v>153</v>
@@ -8369,7 +8397,7 @@
         <v>8</v>
       </c>
       <c r="K78" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L78" t="s">
         <v>8</v>
@@ -8409,7 +8437,7 @@
         <v>42</v>
       </c>
       <c r="AI78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:256" ht="13.5">
@@ -8417,16 +8445,16 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
@@ -8435,7 +8463,7 @@
         <v>86</v>
       </c>
       <c r="H79" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I79" t="s">
         <v>161</v>
@@ -8470,10 +8498,10 @@
         </is>
       </c>
       <c r="S79" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U79" t="s">
         <v>15</v>
@@ -8482,7 +8510,7 @@
         <v>43</v>
       </c>
       <c r="AI79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK79" t="s">
         <v>70</v>
@@ -8496,16 +8524,16 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
@@ -8514,13 +8542,13 @@
         <v>92</v>
       </c>
       <c r="H80" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J80" t="s">
         <v>8</v>
       </c>
       <c r="K80" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L80" t="s">
         <v>8</v>
@@ -8558,7 +8586,7 @@
         <v>44</v>
       </c>
       <c r="AI80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:256" ht="13.5">
@@ -8566,16 +8594,16 @@
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
         <v>8</v>
@@ -8584,7 +8612,7 @@
         <v>56</v>
       </c>
       <c r="H81" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J81" t="s">
         <v>8</v>
@@ -8621,7 +8649,7 @@
         <v>183</v>
       </c>
       <c r="T81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U81" t="s">
         <v>15</v>
@@ -8630,7 +8658,7 @@
         <v>45</v>
       </c>
       <c r="AI81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK81" t="s">
         <v>70</v>
@@ -8644,7 +8672,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -8653,7 +8681,7 @@
         <v>100</v>
       </c>
       <c r="AF82" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AH82">
         <v>12</v>
@@ -8669,7 +8697,7 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -8678,7 +8706,7 @@
         <v>100</v>
       </c>
       <c r="AF83" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AH83">
         <v>13</v>
@@ -8694,19 +8722,19 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH84">
         <v>14</v>
       </c>
       <c r="AI84" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK84" t="s">
         <v>101</v>
@@ -8725,22 +8753,22 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D85" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF85" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH85">
         <v>94</v>
       </c>
       <c r="AI85" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:256" ht="13.5">
@@ -8748,19 +8776,20 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C86" t="s">
+        <v>320</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="L86"/>
+      <c r="AH86">
+        <v>6</v>
+      </c>
+      <c r="AI86" t="s">
         <v>319</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH86">
-        <v>6</v>
-      </c>
-      <c r="AI86" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:256" ht="13.5">
@@ -8768,10 +8797,10 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
+        <v>321</v>
+      </c>
+      <c r="C87" t="s">
         <v>320</v>
-      </c>
-      <c r="C87" t="s">
-        <v>319</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -8780,7 +8809,7 @@
         <v>10</v>
       </c>
       <c r="AI87" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:256" ht="13.5">
@@ -8788,10 +8817,10 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -8800,7 +8829,7 @@
         <v>11</v>
       </c>
       <c r="AI88" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:256" ht="13.5">
@@ -8808,16 +8837,16 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C89" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AH89">
         <v>19</v>
       </c>
       <c r="AI89" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:256" ht="13.5">
@@ -8825,16 +8854,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AH90">
         <v>20</v>
       </c>
       <c r="AI90" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:256" ht="13.5">
@@ -8842,16 +8871,16 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AH91">
         <v>21</v>
       </c>
       <c r="AI91" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:256" ht="13.5">
@@ -8859,10 +8888,10 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
+        <v>321</v>
+      </c>
+      <c r="C92" t="s">
         <v>320</v>
-      </c>
-      <c r="C92" t="s">
-        <v>319</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -8871,7 +8900,7 @@
         <v>26</v>
       </c>
       <c r="AI92" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:256" ht="13.5">
@@ -8879,10 +8908,10 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -8891,7 +8920,7 @@
         <v>27</v>
       </c>
       <c r="AI93" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:256" ht="13.5">
@@ -8899,10 +8928,10 @@
         <v>48</v>
       </c>
       <c r="B94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C94" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -8911,7 +8940,7 @@
         <v>48</v>
       </c>
       <c r="AI94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:256" ht="13.5">
@@ -8919,10 +8948,10 @@
         <v>49</v>
       </c>
       <c r="B95" t="s">
+        <v>321</v>
+      </c>
+      <c r="C95" t="s">
         <v>320</v>
-      </c>
-      <c r="C95" t="s">
-        <v>319</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -8931,7 +8960,7 @@
         <v>49</v>
       </c>
       <c r="AI95" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:256" ht="13.5">
@@ -8939,10 +8968,10 @@
         <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -8951,7 +8980,7 @@
         <v>50</v>
       </c>
       <c r="AI96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:256" ht="13.5">
@@ -8959,10 +8988,10 @@
         <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -8971,7 +9000,7 @@
         <v>73</v>
       </c>
       <c r="AI97" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:256" ht="13.5">
@@ -8979,10 +9008,10 @@
         <v>74</v>
       </c>
       <c r="B98" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" t="s">
         <v>320</v>
-      </c>
-      <c r="C98" t="s">
-        <v>319</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -8991,7 +9020,7 @@
         <v>74</v>
       </c>
       <c r="AI98" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:256" ht="13.5">
@@ -8999,10 +9028,10 @@
         <v>75</v>
       </c>
       <c r="B99" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -9011,7 +9040,7 @@
         <v>75</v>
       </c>
       <c r="AI99" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:256" ht="13.5">
@@ -9019,10 +9048,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" t="s">
         <v>320</v>
-      </c>
-      <c r="C100" t="s">
-        <v>319</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -9031,7 +9060,7 @@
         <v>99</v>
       </c>
       <c r="AI100" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:256" ht="13.5">
@@ -9039,10 +9068,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -9051,38 +9080,38 @@
         <v>100</v>
       </c>
       <c r="AI101" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65531" spans="1:256">
-      <c r="V65531" s="0"/>
-      <c r="AG65531" s="0"/>
-      <c r="AJ65531" s="0"/>
+      <c r="V65531" s="1"/>
+      <c r="AG65531" s="1"/>
+      <c r="AJ65531" s="1"/>
     </row>
     <row r="65532" spans="1:256">
-      <c r="V65532" s="0"/>
-      <c r="AG65532" s="0"/>
-      <c r="AJ65532" s="0"/>
+      <c r="V65532" s="1"/>
+      <c r="AG65532" s="1"/>
+      <c r="AJ65532" s="1"/>
     </row>
     <row r="65533" spans="1:256">
-      <c r="V65533" s="0"/>
-      <c r="AG65533" s="0"/>
-      <c r="AJ65533" s="0"/>
+      <c r="V65533" s="1"/>
+      <c r="AG65533" s="1"/>
+      <c r="AJ65533" s="1"/>
     </row>
     <row r="65534" spans="1:256">
-      <c r="V65534" s="0"/>
-      <c r="AG65534" s="0"/>
-      <c r="AJ65534" s="0"/>
+      <c r="V65534" s="1"/>
+      <c r="AG65534" s="1"/>
+      <c r="AJ65534" s="1"/>
     </row>
     <row r="65535" spans="1:256">
-      <c r="V65535" s="0"/>
-      <c r="AG65535" s="0"/>
-      <c r="AJ65535" s="0"/>
+      <c r="V65535" s="1"/>
+      <c r="AG65535" s="1"/>
+      <c r="AJ65535" s="1"/>
     </row>
     <row r="65536" spans="1:256">
-      <c r="V65536" s="0"/>
-      <c r="AG65536" s="0"/>
-      <c r="AJ65536" s="0"/>
+      <c r="V65536" s="1"/>
+      <c r="AG65536" s="1"/>
+      <c r="AJ65536" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -9101,7 +9130,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -9109,9 +9138,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="4" style="0" width="9.142307692307693"/>
-    <col min="5" max="5" style="0" width="58.139362980769235" customWidth="1"/>
-    <col min="6" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="4" style="1" width="9.142307692307693"/>
+    <col min="5" max="5" style="1" width="58.12983974358975" customWidth="1"/>
+    <col min="6" max="256" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5">
@@ -9128,13 +9157,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5">
@@ -9142,16 +9171,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -9162,16 +9191,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -9182,16 +9211,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -9208,10 +9237,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -9222,16 +9251,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -9242,10 +9271,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -9262,7 +9291,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -9274,7 +9303,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5">
@@ -9282,7 +9311,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -9294,7 +9323,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5">
@@ -9302,7 +9331,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -9314,7 +9343,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5">
@@ -9322,10 +9351,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" t="s">
         <v>320</v>
-      </c>
-      <c r="C11" t="s">
-        <v>319</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -9342,10 +9371,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -9362,7 +9391,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -9374,7 +9403,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.5">
@@ -9382,7 +9411,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -9394,7 +9423,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.5">
@@ -9402,13 +9431,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -9431,7 +9460,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F16" t="s">
         <v>198</v>
@@ -9451,21 +9480,21 @@
         <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:8" customHeight="1" ht="13.5">
       <c r="A18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" t="s">
         <v>203</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>204</v>
-      </c>
-      <c r="C18" t="s">
-        <v>205</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -9474,21 +9503,21 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.5">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -9497,10 +9526,10 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.5">
@@ -9508,10 +9537,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -9525,10 +9554,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -9542,10 +9571,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -9568,10 +9597,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F23" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.5">
@@ -9588,7 +9617,7 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
@@ -9608,10 +9637,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F25" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5">
@@ -9628,7 +9657,7 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F26" t="s">
         <v>43</v>
@@ -9639,10 +9668,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" t="s">
         <v>320</v>
-      </c>
-      <c r="C27" t="s">
-        <v>319</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -9659,10 +9688,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -9688,10 +9717,10 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F29" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.5">
@@ -9708,10 +9737,10 @@
         <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.5">
@@ -9728,10 +9757,10 @@
         <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F31" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.5">
@@ -9748,10 +9777,10 @@
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F32" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.5">
@@ -9759,7 +9788,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -9768,10 +9797,10 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F33" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.5">
@@ -9779,7 +9808,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -9788,10 +9817,10 @@
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F34" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5">
@@ -9808,10 +9837,10 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F35" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5">
@@ -9828,10 +9857,10 @@
         <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5">
@@ -9848,7 +9877,7 @@
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F37" t="s">
         <v>118</v>
@@ -9859,19 +9888,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E38" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F38" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.5">
@@ -9879,19 +9908,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E39" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5">
@@ -9899,19 +9928,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5">
@@ -9919,19 +9948,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E41" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="13.5">
@@ -9939,19 +9968,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E42" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5">
@@ -9959,16 +9988,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E43" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -9979,16 +10008,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E44" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -9999,16 +10028,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E45" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -10019,16 +10048,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E46" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -10048,7 +10077,7 @@
         <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -10068,7 +10097,7 @@
         <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
@@ -10079,10 +10108,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -10099,10 +10128,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>321</v>
+      </c>
+      <c r="C50" t="s">
         <v>320</v>
-      </c>
-      <c r="C50" t="s">
-        <v>319</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -10119,10 +10148,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -10148,7 +10177,7 @@
         <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -10168,7 +10197,7 @@
         <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -10188,7 +10217,7 @@
         <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -10208,7 +10237,7 @@
         <v>136</v>
       </c>
       <c r="E55" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -10219,16 +10248,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E56" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -10239,16 +10268,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E57" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -10259,16 +10288,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -10279,16 +10308,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E59" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -10299,16 +10328,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -10319,16 +10348,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -10339,16 +10368,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E62" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -10359,16 +10388,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E63" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -10379,7 +10408,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -10388,10 +10417,10 @@
         <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5">
@@ -10399,7 +10428,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -10408,7 +10437,7 @@
         <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -10419,7 +10448,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -10428,7 +10457,7 @@
         <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -10439,7 +10468,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -10448,7 +10477,7 @@
         <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -10468,7 +10497,7 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
@@ -10488,7 +10517,7 @@
         <v>78</v>
       </c>
       <c r="E69" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F69" t="s">
         <v>84</v>
@@ -10508,7 +10537,7 @@
         <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
@@ -10528,7 +10557,7 @@
         <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F71" t="s">
         <v>94</v>
@@ -10548,7 +10577,7 @@
         <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F72" t="s">
         <v>98</v>
@@ -10559,7 +10588,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -10568,7 +10597,7 @@
         <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
@@ -10579,10 +10608,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -10599,10 +10628,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75" t="s">
         <v>320</v>
-      </c>
-      <c r="C75" t="s">
-        <v>319</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -10619,10 +10648,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -10639,7 +10668,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -10648,7 +10677,7 @@
         <v>100</v>
       </c>
       <c r="E77" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F77" t="s">
         <v>8</v>
@@ -10659,7 +10688,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -10668,7 +10697,7 @@
         <v>100</v>
       </c>
       <c r="E78" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
@@ -10679,7 +10708,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -10688,7 +10717,7 @@
         <v>136</v>
       </c>
       <c r="E79" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
@@ -10699,7 +10728,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -10708,7 +10737,7 @@
         <v>136</v>
       </c>
       <c r="E80" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
@@ -10719,7 +10748,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -10728,7 +10757,7 @@
         <v>136</v>
       </c>
       <c r="E81" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F81" t="s">
         <v>8</v>
@@ -10739,16 +10768,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E82" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F82" t="s">
         <v>8</v>
@@ -10759,16 +10788,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F83" t="s">
         <v>8</v>
@@ -10779,7 +10808,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -10788,7 +10817,7 @@
         <v>136</v>
       </c>
       <c r="E84" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
@@ -10799,16 +10828,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E85" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F85" t="s">
         <v>8</v>
@@ -10819,7 +10848,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -10828,7 +10857,7 @@
         <v>181</v>
       </c>
       <c r="E86" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F86" t="s">
         <v>8</v>
@@ -10839,7 +10868,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -10848,7 +10877,7 @@
         <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F87" t="s">
         <v>8</v>
@@ -10859,16 +10888,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E88" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F88" t="s">
         <v>8</v>
@@ -10879,16 +10908,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E89" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F89" t="s">
         <v>8</v>
@@ -10899,7 +10928,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -10908,7 +10937,7 @@
         <v>136</v>
       </c>
       <c r="E90" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F90" t="s">
         <v>8</v>
@@ -10919,7 +10948,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -10928,7 +10957,7 @@
         <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
@@ -10948,7 +10977,7 @@
         <v>136</v>
       </c>
       <c r="E92" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F92" t="s">
         <v>8</v>
@@ -10968,7 +10997,7 @@
         <v>146</v>
       </c>
       <c r="E93" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F93" t="s">
         <v>8</v>
@@ -10988,7 +11017,7 @@
         <v>156</v>
       </c>
       <c r="E94" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F94" t="s">
         <v>162</v>
@@ -10999,19 +11028,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D95" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5">
@@ -11028,7 +11057,7 @@
         <v>164</v>
       </c>
       <c r="E96" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F96" t="s">
         <v>8</v>
@@ -11048,7 +11077,7 @@
         <v>164</v>
       </c>
       <c r="E97" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F97" t="s">
         <v>8</v>
@@ -11059,16 +11088,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E98" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F98" t="s">
         <v>8</v>
@@ -11079,16 +11108,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E99" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F99" t="s">
         <v>8</v>
@@ -11099,10 +11128,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" t="s">
         <v>320</v>
-      </c>
-      <c r="C100" t="s">
-        <v>319</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -11119,10 +11148,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -11151,19 +11180,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A82" sqref="A82:IV82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="2" style="0" width="6.713882211538462" customWidth="1"/>
-    <col min="3" max="4" style="0" width="9.142307692307693"/>
-    <col min="5" max="5" style="0" width="124.99248798076924" customWidth="1"/>
-    <col min="6" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="1" style="1" width="9.142307692307693"/>
+    <col min="2" max="2" style="1" width="6.713882211538462" customWidth="1"/>
+    <col min="3" max="4" style="1" width="9.142307692307693"/>
+    <col min="5" max="5" style="1" width="124.98296474358976" customWidth="1"/>
+    <col min="6" max="256" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5">
@@ -11180,13 +11209,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5">
@@ -11203,10 +11232,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.5">
@@ -11223,7 +11252,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -11243,10 +11272,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.5">
@@ -11263,7 +11292,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -11283,10 +11312,10 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5">
@@ -11303,10 +11332,10 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5">
@@ -11323,10 +11352,10 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5">
@@ -11343,10 +11372,10 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5">
@@ -11363,7 +11392,7 @@
         <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -11383,7 +11412,7 @@
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F11" t="s">
         <v>84</v>
@@ -11403,7 +11432,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -11423,7 +11452,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F13" t="s">
         <v>94</v>
@@ -11443,7 +11472,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -11454,7 +11483,7 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -11463,7 +11492,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -11474,7 +11503,7 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -11483,7 +11512,7 @@
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -11494,7 +11523,7 @@
         <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -11503,7 +11532,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -11523,10 +11552,10 @@
         <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F18" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.5">
@@ -11543,10 +11572,10 @@
         <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F19" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.5">
@@ -11563,7 +11592,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F20" t="s">
         <v>118</v>
@@ -11574,7 +11603,7 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -11583,7 +11612,7 @@
         <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -11594,7 +11623,7 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -11603,7 +11632,7 @@
         <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -11623,7 +11652,7 @@
         <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -11643,7 +11672,7 @@
         <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -11663,7 +11692,7 @@
         <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -11683,7 +11712,7 @@
         <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -11703,7 +11732,7 @@
         <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -11723,7 +11752,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -11743,7 +11772,7 @@
         <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -11763,7 +11792,7 @@
         <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -11783,7 +11812,7 @@
         <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -11803,7 +11832,7 @@
         <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -11823,7 +11852,7 @@
         <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -11843,7 +11872,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F34" t="s">
         <v>198</v>
@@ -11863,21 +11892,21 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5">
       <c r="A36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" t="s">
         <v>203</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>204</v>
-      </c>
-      <c r="C36" t="s">
-        <v>205</v>
       </c>
       <c r="D36" t="s">
         <v>45</v>
@@ -11886,21 +11915,21 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H36" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
@@ -11909,10 +11938,10 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H37" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.5">
@@ -11920,7 +11949,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -11929,10 +11958,10 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.5">
@@ -11940,7 +11969,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -11949,10 +11978,10 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F39" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5">
@@ -11960,7 +11989,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -11969,10 +11998,10 @@
         <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5">
@@ -11980,7 +12009,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -11989,7 +12018,7 @@
         <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -12000,7 +12029,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -12009,7 +12038,7 @@
         <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -12020,7 +12049,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -12029,7 +12058,7 @@
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -12040,7 +12069,7 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -12049,7 +12078,7 @@
         <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -12060,7 +12089,7 @@
         <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -12069,7 +12098,7 @@
         <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -12080,7 +12109,7 @@
         <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -12089,7 +12118,7 @@
         <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -12100,7 +12129,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -12112,7 +12141,7 @@
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5">
@@ -12120,7 +12149,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -12132,7 +12161,7 @@
         <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5">
@@ -12140,7 +12169,7 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -12152,7 +12181,7 @@
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.5">
@@ -12160,16 +12189,16 @@
         <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E50" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -12180,16 +12209,16 @@
         <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E51" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -12200,7 +12229,7 @@
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -12209,7 +12238,7 @@
         <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -12220,16 +12249,16 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E53" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -12240,7 +12269,7 @@
         <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -12249,7 +12278,7 @@
         <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -12260,7 +12289,7 @@
         <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -12269,7 +12298,7 @@
         <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -12280,16 +12309,16 @@
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E56" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -12300,16 +12329,16 @@
         <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E57" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -12320,16 +12349,16 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -12340,16 +12369,16 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E59" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -12360,16 +12389,16 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -12380,16 +12409,16 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -12400,16 +12429,16 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E62" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -12420,16 +12449,16 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E63" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -12440,16 +12469,16 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E64" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -12460,16 +12489,16 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E65" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -12480,16 +12509,16 @@
         <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E66" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -12500,16 +12529,16 @@
         <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -12520,16 +12549,16 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
@@ -12540,16 +12569,16 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E69" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
@@ -12560,16 +12589,16 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
@@ -12586,10 +12615,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F71" t="s">
         <v>8</v>
@@ -12600,16 +12629,16 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E72" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
@@ -12620,19 +12649,19 @@
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E73" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F73" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5">
@@ -12640,19 +12669,19 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="13.5">
@@ -12660,19 +12689,19 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E75" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F75" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="13.5">
@@ -12680,19 +12709,19 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="13.5">
@@ -12700,19 +12729,19 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E77" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F77" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5">
@@ -12720,16 +12749,16 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E78" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
@@ -12740,16 +12769,16 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E79" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
@@ -12760,16 +12789,16 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E80" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
@@ -12780,16 +12809,16 @@
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E81" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F81" t="s">
         <v>8</v>
@@ -12801,7 +12830,7 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -12813,7 +12842,7 @@
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="13.5">
@@ -12821,7 +12850,7 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -12833,7 +12862,7 @@
         <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="13.5">
@@ -12841,13 +12870,13 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -12861,30 +12890,31 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D86" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>317</v>
-      </c>
-    </row>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="13.5"/>
     <row r="88" spans="1:8" ht="13.5">
       <c r="A88">
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -12901,10 +12931,10 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" t="s">
         <v>320</v>
-      </c>
-      <c r="C89" t="s">
-        <v>319</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -12921,10 +12951,10 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -12941,10 +12971,10 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -12958,10 +12988,10 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -12975,10 +13005,10 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -12992,10 +13022,10 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" t="s">
         <v>320</v>
-      </c>
-      <c r="C94" t="s">
-        <v>319</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -13012,10 +13042,10 @@
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -13032,10 +13062,10 @@
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -13052,10 +13082,10 @@
         <v>49</v>
       </c>
       <c r="B97" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" t="s">
         <v>320</v>
-      </c>
-      <c r="C97" t="s">
-        <v>319</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -13072,10 +13102,10 @@
         <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -13092,10 +13122,10 @@
         <v>73</v>
       </c>
       <c r="B99" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -13112,10 +13142,10 @@
         <v>74</v>
       </c>
       <c r="B100" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" t="s">
         <v>320</v>
-      </c>
-      <c r="C100" t="s">
-        <v>319</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -13132,10 +13162,10 @@
         <v>75</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -13152,11 +13182,11 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" t="s">
         <v>320</v>
       </c>
-      <c r="C102" t="s">
-        <v>319</v>
-      </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
@@ -13167,15 +13197,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.5">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -13204,7 +13234,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
@@ -13212,28 +13242,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="256" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.5">
+    <row r="1" spans="1:3" ht="13.5">
       <c r="A1" t="inlineStr">
         <is>
           <t>MX25U8035F</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.5">
+    <row r="2" spans="1:3" ht="13.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="13.5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5">
       <c r="A3">
         <v>5</v>
       </c>
@@ -13244,18 +13274,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="13.5">
+    <row r="4" spans="1:3" ht="13.5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="13.5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5">
       <c r="A5">
         <v>6</v>
       </c>
@@ -13266,18 +13296,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13.5">
+    <row r="6" spans="1:3" ht="13.5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="13.5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13288,7 +13318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="13.5">
+    <row r="8" spans="1:3" ht="13.5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -13303,7 +13333,7 @@
         </is>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="13.5">
+    <row r="9" spans="1:3" ht="13.5">
       <c r="A9">
         <v>4</v>
       </c>
@@ -13318,14 +13348,14 @@
         </is>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5"/>
-    <row r="11" spans="1:18" ht="13.5"/>
-    <row r="12" spans="1:18" ht="13.5"/>
-    <row r="13" spans="1:18" ht="13.5"/>
-    <row r="14" spans="1:18" ht="13.5"/>
-    <row r="15" spans="1:18" ht="13.5"/>
-    <row r="16" spans="1:18" ht="13.5"/>
-    <row r="17" spans="1:18" ht="13.5"/>
+    <row r="10" spans="1:3" ht="13.5"/>
+    <row r="11" spans="1:3" ht="13.5"/>
+    <row r="12" spans="1:3" ht="13.5"/>
+    <row r="13" spans="1:3" ht="13.5"/>
+    <row r="14" spans="1:3" ht="13.5"/>
+    <row r="15" spans="1:3" ht="13.5"/>
+    <row r="16" spans="1:3" ht="13.5"/>
+    <row r="17" spans="1:3" ht="13.5"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
@@ -13351,7 +13381,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="256" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5">
@@ -13393,30 +13423,30 @@
     </row>
     <row r="4" spans="1:4" ht="13.5">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.5">
@@ -13429,7 +13459,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -13447,7 +13477,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -13465,7 +13495,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -13483,7 +13513,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -13521,7 +13551,7 @@
         </is>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -13539,7 +13569,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -13555,7 +13585,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -13573,7 +13603,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -13591,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -13601,7 +13631,7 @@
     </row>
     <row r="16" spans="1:4" ht="13.5">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B16">
         <v>8</v>
